--- a/RUDN/Importance/Varible_f_reg_in_South America.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_South America.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>F-value</t>
   </si>
@@ -22,16 +22,34 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
@@ -40,6 +58,9 @@
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
@@ -52,100 +73,247 @@
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
@@ -154,232 +322,283 @@
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Unemployment, total (% of total labor force)</t>
@@ -388,223 +607,169 @@
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>760.7632646114182</v>
+        <v>2377.249042680729</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -992,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>679.2575073501399</v>
+        <v>2144.064086820129</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1003,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>640.9540849908035</v>
+        <v>1826.790425603572</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1014,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>640.9540849908035</v>
+        <v>750.5257479510378</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1025,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>483.6310455668444</v>
+        <v>731.1870106796807</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1036,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>480.1196572603167</v>
+        <v>718.69587062911</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1047,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>355.7657004036609</v>
+        <v>642.4122731974421</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1058,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>355.7657004036326</v>
+        <v>603.8675592144846</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1069,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>288.8323328732145</v>
+        <v>603.8675592144846</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1080,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>286.4144169899923</v>
+        <v>515.5282395252457</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1091,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>232.1965843476437</v>
+        <v>479.4615510416988</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1102,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>207.5402743656365</v>
+        <v>474.6926698459241</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1113,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>179.1281293396275</v>
+        <v>389.2291181555574</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1124,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>176.773622364913</v>
+        <v>327.1014249776468</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1135,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>176.6820067454096</v>
+        <v>327.1014249776136</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1146,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>172.9711290719139</v>
+        <v>277.1360309189524</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1157,7 +1322,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>165.0292921165025</v>
+        <v>269.1042758880271</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1168,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>165.0292921165025</v>
+        <v>221.3899611458241</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1179,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>163.8902790021428</v>
+        <v>219.7108614560046</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1190,7 +1355,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>151.2802197846739</v>
+        <v>216.4708084565523</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1201,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>150.4162424909678</v>
+        <v>215.8367723816079</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1212,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>147.9942629024561</v>
+        <v>215.4674296075448</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1223,7 +1388,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>144.9766250846914</v>
+        <v>215.1384544560774</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1234,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>144.0702596046663</v>
+        <v>210.592423444053</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1245,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>134.8152578239385</v>
+        <v>210.295716693209</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1256,7 +1421,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>133.9563742806864</v>
+        <v>209.9577734664936</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1267,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>131.6713464639049</v>
+        <v>209.5589660550215</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1278,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>124.4501128469552</v>
+        <v>209.506371836345</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1289,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>123.78696292147</v>
+        <v>206.5186136333385</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1300,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>120.653144558069</v>
+        <v>205.1173210194896</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1311,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>119.7759879375761</v>
+        <v>204.0741442648848</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1322,7 +1487,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>117.4332555571798</v>
+        <v>201.9397561798831</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1333,7 +1498,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>116.8846678257058</v>
+        <v>201.5303539640537</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1344,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>112.5744307049868</v>
+        <v>201.3775236129757</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1355,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>108.7278336084338</v>
+        <v>199.7812253478576</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1366,7 +1531,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>106.211433745954</v>
+        <v>198.9986923461035</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1377,7 +1542,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>106.0256400040398</v>
+        <v>198.6873255879436</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1388,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>105.9580966620136</v>
+        <v>197.585568916325</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1399,7 +1564,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>105.4378440660236</v>
+        <v>197.3225922332433</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1410,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>103.873802139715</v>
+        <v>197.1957836194049</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1421,7 +1586,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>103.0753009387255</v>
+        <v>196.7423147038479</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1432,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>102.7982181217776</v>
+        <v>196.5576943122737</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1443,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>100.4775395540223</v>
+        <v>196.2195520168256</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1454,7 +1619,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>99.65579250188989</v>
+        <v>196.218215458405</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1465,7 +1630,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>96.28177930326409</v>
+        <v>196.0250225069239</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1476,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>95.62789165776417</v>
+        <v>195.859107508511</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1487,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>95.26771705463975</v>
+        <v>194.978915835185</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1498,7 +1663,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>92.92375725103787</v>
+        <v>193.0966939807667</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1509,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>86.16029037685929</v>
+        <v>192.1454534936917</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1520,7 +1685,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>85.34667947989165</v>
+        <v>192.1454534936917</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1531,7 +1696,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>79.80327270691413</v>
+        <v>188.7012208949658</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1542,7 +1707,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>79.63521030046645</v>
+        <v>175.5505264493191</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1553,7 +1718,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>79.48232047475747</v>
+        <v>171.4520385578845</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1564,7 +1729,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>76.64336745767524</v>
+        <v>167.0988917503178</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1575,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>76.52499053081146</v>
+        <v>163.4072566314671</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1586,7 +1751,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>76.38574698901596</v>
+        <v>156.6076428331605</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1597,7 +1762,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>74.81222730094633</v>
+        <v>156.6076428331605</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1608,7 +1773,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>74.56755447667658</v>
+        <v>154.104522418245</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1619,7 +1784,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>73.97805929269271</v>
+        <v>146.0846618886125</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1630,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>71.75274858577627</v>
+        <v>145.9078910173539</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1641,7 +1806,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>60.49637475833588</v>
+        <v>142.8813958847927</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1652,7 +1817,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>60.49637475807902</v>
+        <v>142.7304036532065</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1663,7 +1828,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>60.09642269799834</v>
+        <v>142.5988437102201</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1674,7 +1839,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>57.14480870573027</v>
+        <v>142.3736096523193</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1685,7 +1850,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>55.33816706942942</v>
+        <v>139.9749966053596</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1696,7 +1861,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>53.06675141662419</v>
+        <v>139.410592206424</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1707,7 +1872,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>48.59903282008534</v>
+        <v>138.084991430096</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1718,7 +1883,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>47.78892210761025</v>
+        <v>137.1572781941425</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1729,7 +1894,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>47.46338171287659</v>
+        <v>136.6574246872962</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1740,7 +1905,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>47.3900715478256</v>
+        <v>136.4527249998559</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1751,7 +1916,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>46.27170426330673</v>
+        <v>130.7600893241926</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1762,7 +1927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>46.21007478261178</v>
+        <v>130.6342571130897</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1773,7 +1938,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>46.20490811717846</v>
+        <v>129.8543150237633</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1784,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>45.9685221359797</v>
+        <v>127.9874355661958</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1795,7 +1960,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>45.87040031451704</v>
+        <v>123.9252710000219</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1806,7 +1971,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>45.601659257192</v>
+        <v>123.9252710000219</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1817,7 +1982,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>45.44638277402771</v>
+        <v>123.564970502722</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1828,7 +1993,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>45.26492744514934</v>
+        <v>120.6069367084855</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1839,7 +2004,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>45.01319212072424</v>
+        <v>118.9301743609823</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1850,7 +2015,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>44.47919254048478</v>
+        <v>115.8722719369413</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1861,7 +2026,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>44.30937852885224</v>
+        <v>111.6567068955633</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1872,7 +2037,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>44.16748251031051</v>
+        <v>109.9881014368297</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1883,7 +2048,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>43.81403298036826</v>
+        <v>109.9881014368297</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1894,7 +2059,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>43.47799224503698</v>
+        <v>109.9856778787785</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1905,7 +2070,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>43.41424543277773</v>
+        <v>106.1937076422425</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1916,7 +2081,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>43.32479384981455</v>
+        <v>105.5219482470496</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1927,7 +2092,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>41.50144309916647</v>
+        <v>104.47854987532</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1938,7 +2103,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>40.49392761876137</v>
+        <v>104.0637595381382</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1949,7 +2114,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>37.8272613273836</v>
+        <v>100.9951415675353</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1960,7 +2125,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>35.90062361429226</v>
+        <v>100.6724090605359</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1971,7 +2136,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>35.90062361429226</v>
+        <v>100.1876141575305</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1982,7 +2147,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>34.11103709107319</v>
+        <v>99.00209888629036</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1993,7 +2158,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>34.07620380608521</v>
+        <v>98.9705138174274</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2004,7 +2169,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>34.0531382552816</v>
+        <v>98.11066373398471</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2015,7 +2180,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>34.02752069915783</v>
+        <v>97.28648811531841</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2026,7 +2191,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>33.74515341705035</v>
+        <v>97.13284881468773</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2037,7 +2202,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>33.19389954628798</v>
+        <v>97.11707713637878</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2048,7 +2213,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>32.81446263619968</v>
+        <v>96.95849092009256</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2059,7 +2224,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>32.78456129910363</v>
+        <v>89.43087419741346</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2070,7 +2235,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>32.27495408474545</v>
+        <v>88.36619569810341</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2081,7 +2246,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>30.57763202646543</v>
+        <v>87.352877011356</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2092,7 +2257,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>30.50496271457263</v>
+        <v>85.99257361469449</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2103,7 +2268,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>30.26484301855748</v>
+        <v>85.40466860327375</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2114,7 +2279,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>29.50994127214276</v>
+        <v>85.32049756482957</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2125,7 +2290,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>27.20453873577023</v>
+        <v>85.01950268295565</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2136,7 +2301,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>26.42529297487798</v>
+        <v>83.77718804142387</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2147,7 +2312,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>26.31882063337015</v>
+        <v>79.05865270132423</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2158,7 +2323,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>26.28022232741636</v>
+        <v>77.50665491614873</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2169,7 +2334,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>26.27730948021616</v>
+        <v>65.7565681949439</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2180,7 +2345,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>25.65853554958241</v>
+        <v>65.59428423446603</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2191,7 +2356,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>25.17593707114435</v>
+        <v>65.45770479205765</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2202,7 +2367,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>24.1413034149279</v>
+        <v>63.65227589948757</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2213,7 +2378,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>23.9865805434192</v>
+        <v>61.36148315993932</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2224,7 +2389,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>23.79285620656775</v>
+        <v>56.13172102489554</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2235,7 +2400,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>23.78805210591837</v>
+        <v>55.41257267936481</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2246,7 +2411,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>23.20291393308445</v>
+        <v>55.41257267920771</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2257,7 +2422,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>23.17809700043067</v>
+        <v>55.0981465061916</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2268,10 +2433,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>21.85143792540423</v>
+        <v>55.04077886326063</v>
       </c>
       <c r="C119">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2279,10 +2444,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>21.52079600345855</v>
+        <v>54.97970829461415</v>
       </c>
       <c r="C120">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2290,10 +2455,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>21.45326207296581</v>
+        <v>54.4789587886264</v>
       </c>
       <c r="C121">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2301,10 +2466,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>20.24889655172327</v>
+        <v>53.64513501220301</v>
       </c>
       <c r="C122">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2312,10 +2477,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>19.64618135839751</v>
+        <v>53.55948138368684</v>
       </c>
       <c r="C123">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2323,10 +2488,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>19.09338926944239</v>
+        <v>52.70698371183758</v>
       </c>
       <c r="C124">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2334,10 +2499,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>19.05960453228283</v>
+        <v>50.25878443078488</v>
       </c>
       <c r="C125">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2345,10 +2510,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>18.99528076634827</v>
+        <v>50.23425490008835</v>
       </c>
       <c r="C126">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2356,10 +2521,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>18.62110992459086</v>
+        <v>49.23228960797662</v>
       </c>
       <c r="C127">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2367,10 +2532,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>18.56654647709315</v>
+        <v>48.72558344983127</v>
       </c>
       <c r="C128">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2378,10 +2543,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>18.23602713889467</v>
+        <v>48.45842529949532</v>
       </c>
       <c r="C129">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2389,10 +2554,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>17.78017036752464</v>
+        <v>48.40007271603845</v>
       </c>
       <c r="C130">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2400,10 +2565,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>17.78017036752464</v>
+        <v>46.75448088665863</v>
       </c>
       <c r="C131">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2411,10 +2576,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>17.73838443507185</v>
+        <v>46.71180601314065</v>
       </c>
       <c r="C132">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2422,10 +2587,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>17.27110236820246</v>
+        <v>45.93890458943189</v>
       </c>
       <c r="C133">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2433,10 +2598,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>16.23669559069331</v>
+        <v>45.66345656274973</v>
       </c>
       <c r="C134">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2444,10 +2609,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>16.22051056307976</v>
+        <v>45.49226714629637</v>
       </c>
       <c r="C135">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2455,10 +2620,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>16.12883359343348</v>
+        <v>45.09324029928028</v>
       </c>
       <c r="C136">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2466,10 +2631,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>16.0787849686108</v>
+        <v>44.90078582089768</v>
       </c>
       <c r="C137">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2477,10 +2642,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>15.05114959036866</v>
+        <v>44.58526910901922</v>
       </c>
       <c r="C138">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2488,10 +2653,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>15.05114959036866</v>
+        <v>44.58459748734645</v>
       </c>
       <c r="C139">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2499,10 +2664,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>14.99334581831502</v>
+        <v>44.03646780282384</v>
       </c>
       <c r="C140">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2510,10 +2675,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>14.97559414128419</v>
+        <v>44.03646780282384</v>
       </c>
       <c r="C141">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2521,10 +2686,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>14.7411921523799</v>
+        <v>43.63213106640838</v>
       </c>
       <c r="C142">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2532,10 +2697,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>14.35584290977243</v>
+        <v>43.55369385936947</v>
       </c>
       <c r="C143">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2543,10 +2708,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>14.35584290977243</v>
+        <v>43.54956838875992</v>
       </c>
       <c r="C144">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2554,10 +2719,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>14.09515478647427</v>
+        <v>43.54277191569668</v>
       </c>
       <c r="C145">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2565,10 +2730,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>14.06802485485891</v>
+        <v>42.96915864116085</v>
       </c>
       <c r="C146">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2576,10 +2741,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>14.04192462202066</v>
+        <v>40.90597939375797</v>
       </c>
       <c r="C147">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2587,10 +2752,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>13.83123117187564</v>
+        <v>39.75586395450125</v>
       </c>
       <c r="C148">
-        <v>0.00029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2598,10 +2763,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>13.50999160887261</v>
+        <v>36.7500747853483</v>
       </c>
       <c r="C149">
-        <v>0.00034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2609,10 +2774,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>12.98685928986874</v>
+        <v>34.27799417652104</v>
       </c>
       <c r="C150">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2620,10 +2785,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>12.93890896096178</v>
+        <v>34.04290292892664</v>
       </c>
       <c r="C151">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2631,10 +2796,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>12.80213266701134</v>
+        <v>34.01095121753071</v>
       </c>
       <c r="C152">
-        <v>0.00048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2642,10 +2807,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>12.74723095300877</v>
+        <v>32.84360749897992</v>
       </c>
       <c r="C153">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2653,10 +2818,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>12.73289633755966</v>
+        <v>32.49892813965681</v>
       </c>
       <c r="C154">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2664,10 +2829,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>12.72690220360487</v>
+        <v>31.57831627287746</v>
       </c>
       <c r="C155">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2675,10 +2840,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>12.54118010708777</v>
+        <v>31.21650110238923</v>
       </c>
       <c r="C156">
-        <v>0.00054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2686,10 +2851,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>12.3354810316905</v>
+        <v>31.21650110238923</v>
       </c>
       <c r="C157">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2697,10 +2862,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>12.32902221220635</v>
+        <v>30.14515924765369</v>
       </c>
       <c r="C158">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2708,10 +2873,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>12.32564314911646</v>
+        <v>30.12267133263709</v>
       </c>
       <c r="C159">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2719,10 +2884,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>12.32205124849918</v>
+        <v>29.91890251685382</v>
       </c>
       <c r="C160">
-        <v>0.00061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2730,10 +2895,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>12.06852597618513</v>
+        <v>29.73021177077685</v>
       </c>
       <c r="C161">
-        <v>0.00069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2741,10 +2906,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>11.90020194125166</v>
+        <v>29.15745156088511</v>
       </c>
       <c r="C162">
-        <v>0.00074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2752,10 +2917,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>11.57308819388352</v>
+        <v>29.03896792782323</v>
       </c>
       <c r="C163">
-        <v>0.00088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2763,10 +2928,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>11.13276730431587</v>
+        <v>28.0891464217332</v>
       </c>
       <c r="C164">
-        <v>0.00109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2774,10 +2939,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>10.92666198008693</v>
+        <v>27.96892827796584</v>
       </c>
       <c r="C165">
-        <v>0.00121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2785,10 +2950,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>9.935242985929358</v>
+        <v>27.50958147696088</v>
       </c>
       <c r="C166">
-        <v>0.00199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2796,10 +2961,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>9.890286701014125</v>
+        <v>27.49996483003017</v>
       </c>
       <c r="C167">
-        <v>0.00204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2807,10 +2972,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>9.807952187955834</v>
+        <v>27.40918452804329</v>
       </c>
       <c r="C168">
-        <v>0.00212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2818,10 +2983,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>9.714988894030949</v>
+        <v>27.27020245053299</v>
       </c>
       <c r="C169">
-        <v>0.00222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2829,10 +2994,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>9.495683009466742</v>
+        <v>26.5900009118924</v>
       </c>
       <c r="C170">
-        <v>0.00249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2840,10 +3005,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>9.294783193536132</v>
+        <v>26.48186469699267</v>
       </c>
       <c r="C171">
-        <v>0.00276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2851,10 +3016,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>9.262131497654105</v>
+        <v>26.38699419995536</v>
       </c>
       <c r="C172">
-        <v>0.0028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2862,10 +3027,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>9.105308414154136</v>
+        <v>26.36116060321323</v>
       </c>
       <c r="C173">
-        <v>0.00304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2873,10 +3038,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>9.074107160877587</v>
+        <v>26.01624159206532</v>
       </c>
       <c r="C174">
-        <v>0.00308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2884,10 +3049,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>9.072903108647587</v>
+        <v>25.96747549343188</v>
       </c>
       <c r="C175">
-        <v>0.00309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2895,10 +3060,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>9.057634124619717</v>
+        <v>25.57743314525569</v>
       </c>
       <c r="C176">
-        <v>0.00311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2906,10 +3071,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>9.044317404366325</v>
+        <v>25.53459917660055</v>
       </c>
       <c r="C177">
-        <v>0.00313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2917,10 +3082,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>9.044317404366325</v>
+        <v>25.44922203615552</v>
       </c>
       <c r="C178">
-        <v>0.00313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2928,10 +3093,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>8.892025153673691</v>
+        <v>25.44922203615552</v>
       </c>
       <c r="C179">
-        <v>0.00339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2939,10 +3104,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>8.8605486415317</v>
+        <v>25.44332190674323</v>
       </c>
       <c r="C180">
-        <v>0.00344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2950,10 +3115,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>8.820191837984723</v>
+        <v>25.03677647113969</v>
       </c>
       <c r="C181">
-        <v>0.00351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2961,10 +3126,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>8.807401531769944</v>
+        <v>25.00968469322137</v>
       </c>
       <c r="C182">
-        <v>0.00354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2972,10 +3137,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>8.799444091141995</v>
+        <v>24.73064068783471</v>
       </c>
       <c r="C183">
-        <v>0.00355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2983,10 +3148,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>8.75494565627463</v>
+        <v>24.40348327318025</v>
       </c>
       <c r="C184">
-        <v>0.00363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2994,10 +3159,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>8.662695002554623</v>
+        <v>23.95220437712102</v>
       </c>
       <c r="C185">
-        <v>0.00381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3005,10 +3170,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>8.660243142707799</v>
+        <v>23.8493141957723</v>
       </c>
       <c r="C186">
-        <v>0.00382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3016,10 +3181,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>8.594566932756427</v>
+        <v>23.78133189925628</v>
       </c>
       <c r="C187">
-        <v>0.00395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3027,10 +3192,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>8.540210490426842</v>
+        <v>22.36064549198186</v>
       </c>
       <c r="C188">
-        <v>0.00406</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3038,10 +3203,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>8.370966389456012</v>
+        <v>22.1643570911072</v>
       </c>
       <c r="C189">
-        <v>0.00443</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3049,10 +3214,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>8.354546604944659</v>
+        <v>18.96148297640901</v>
       </c>
       <c r="C190">
-        <v>0.00447</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3060,10 +3225,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>8.300267493552788</v>
+        <v>18.93450676055037</v>
       </c>
       <c r="C191">
-        <v>0.0046</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3071,10 +3236,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>8.2755489249971</v>
+        <v>17.70524808864808</v>
       </c>
       <c r="C192">
-        <v>0.00466</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3082,10 +3247,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>8.241602102768454</v>
+        <v>17.63770508489956</v>
       </c>
       <c r="C193">
-        <v>0.00474</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3093,10 +3258,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>7.557569719021551</v>
+        <v>17.48190991315077</v>
       </c>
       <c r="C194">
-        <v>0.00678</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3104,10 +3269,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>7.470251249113205</v>
+        <v>17.30867760068953</v>
       </c>
       <c r="C195">
-        <v>0.00709</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3115,10 +3280,615 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>7.419096452843983</v>
+        <v>17.28468788165929</v>
       </c>
       <c r="C196">
-        <v>0.00729</v>
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>16.60453009312912</v>
+      </c>
+      <c r="C197">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>16.4077779262324</v>
+      </c>
+      <c r="C198">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>16.34417644022773</v>
+      </c>
+      <c r="C199">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>16.04821008985038</v>
+      </c>
+      <c r="C200">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>15.89377598805717</v>
+      </c>
+      <c r="C201">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>15.37269924627783</v>
+      </c>
+      <c r="C202">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>15.35578599055762</v>
+      </c>
+      <c r="C203">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>15.34896854704709</v>
+      </c>
+      <c r="C204">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>15.23838714830528</v>
+      </c>
+      <c r="C205">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>14.92506356085577</v>
+      </c>
+      <c r="C206">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>14.66561286877097</v>
+      </c>
+      <c r="C207">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>14.52235132824196</v>
+      </c>
+      <c r="C208">
+        <v>0.00021</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>14.51958711716829</v>
+      </c>
+      <c r="C209">
+        <v>0.00021</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>14.4458393757823</v>
+      </c>
+      <c r="C210">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>14.41389757969326</v>
+      </c>
+      <c r="C211">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>14.36171416721181</v>
+      </c>
+      <c r="C212">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>13.74084718828146</v>
+      </c>
+      <c r="C213">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>13.36791541977003</v>
+      </c>
+      <c r="C214">
+        <v>0.00037</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>13.27590704533898</v>
+      </c>
+      <c r="C215">
+        <v>0.00039</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>13.27256212514564</v>
+      </c>
+      <c r="C216">
+        <v>0.00039</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>13.17618192532528</v>
+      </c>
+      <c r="C217">
+        <v>0.00041</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>12.91678123120299</v>
+      </c>
+      <c r="C218">
+        <v>0.00046</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>12.58041976651397</v>
+      </c>
+      <c r="C219">
+        <v>0.00055</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>12.43694211685594</v>
+      </c>
+      <c r="C220">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>12.26330517957795</v>
+      </c>
+      <c r="C221">
+        <v>0.0006400000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>12.26330517957795</v>
+      </c>
+      <c r="C222">
+        <v>0.0006400000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>12.18366210977152</v>
+      </c>
+      <c r="C223">
+        <v>0.00066</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>12.11920444112564</v>
+      </c>
+      <c r="C224">
+        <v>0.00068</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>12.11276804118833</v>
+      </c>
+      <c r="C225">
+        <v>0.00069</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>12.04835133685434</v>
+      </c>
+      <c r="C226">
+        <v>0.00071</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>11.36990214558975</v>
+      </c>
+      <c r="C227">
+        <v>0.00099</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>11.32511648148373</v>
+      </c>
+      <c r="C228">
+        <v>0.00101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>11.19190943238655</v>
+      </c>
+      <c r="C229">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>10.82278636368308</v>
+      </c>
+      <c r="C230">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>10.38972705005327</v>
+      </c>
+      <c r="C231">
+        <v>0.00161</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>9.929583258402825</v>
+      </c>
+      <c r="C232">
+        <v>0.00203</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>9.795967738445777</v>
+      </c>
+      <c r="C233">
+        <v>0.00217</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>9.754451216677124</v>
+      </c>
+      <c r="C234">
+        <v>0.00221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>9.579149335946903</v>
+      </c>
+      <c r="C235">
+        <v>0.00242</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>9.178681971437893</v>
+      </c>
+      <c r="C236">
+        <v>0.00296</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>8.856958597982015</v>
+      </c>
+      <c r="C237">
+        <v>0.00349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>8.856958597889127</v>
+      </c>
+      <c r="C238">
+        <v>0.00349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>8.75140989816218</v>
+      </c>
+      <c r="C239">
+        <v>0.00369</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>8.600098406262807</v>
+      </c>
+      <c r="C240">
+        <v>0.00398</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>8.568428668863294</v>
+      </c>
+      <c r="C241">
+        <v>0.00405</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>8.361323785856143</v>
+      </c>
+      <c r="C242">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>8.176983848788572</v>
+      </c>
+      <c r="C243">
+        <v>0.00496</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>8.137865759123565</v>
+      </c>
+      <c r="C244">
+        <v>0.00506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>8.132225355941173</v>
+      </c>
+      <c r="C245">
+        <v>0.00507</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>8.086435894550677</v>
+      </c>
+      <c r="C246">
+        <v>0.00519</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>7.663481461783992</v>
+      </c>
+      <c r="C247">
+        <v>0.00647</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>7.129131453685465</v>
+      </c>
+      <c r="C248">
+        <v>0.008569999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>6.87331567399803</v>
+      </c>
+      <c r="C249">
+        <v>0.009809999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>6.86318087372461</v>
+      </c>
+      <c r="C250">
+        <v>0.009860000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>6.852515573285504</v>
+      </c>
+      <c r="C251">
+        <v>0.00992</v>
       </c>
     </row>
   </sheetData>
